--- a/projet_ST7/phase_3/InstancesV2/InstanceTestV2.xlsx
+++ b/projet_ST7/phase_3/InstancesV2/InstanceTestV2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yandi\Desktop\ST7 - Aide à la décision\ST7_phase2\projet_ST7\projet_ST7\phase_3\InstancesV2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1C1DCE-2442-404A-8A57-949D517DB981}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECB16954-B0E7-4210-9E2C-DB2834F6E5B2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Employees" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="108">
   <si>
     <t>Latitude</t>
   </si>
@@ -133,6 +133,225 @@
   </si>
   <si>
     <t>-3.425316</t>
+  </si>
+  <si>
+    <t>T5</t>
+  </si>
+  <si>
+    <t>40.117044</t>
+  </si>
+  <si>
+    <t>-2.812485</t>
+  </si>
+  <si>
+    <t>T6</t>
+  </si>
+  <si>
+    <t>40.09903</t>
+  </si>
+  <si>
+    <t>-3.778853</t>
+  </si>
+  <si>
+    <t>T7</t>
+  </si>
+  <si>
+    <t>39.908507</t>
+  </si>
+  <si>
+    <t>-3.097717</t>
+  </si>
+  <si>
+    <t>T8</t>
+  </si>
+  <si>
+    <t>39.862407</t>
+  </si>
+  <si>
+    <t>-3.607674</t>
+  </si>
+  <si>
+    <t>T9</t>
+  </si>
+  <si>
+    <t>40.324747</t>
+  </si>
+  <si>
+    <t>-2.885967</t>
+  </si>
+  <si>
+    <t>4:00pm</t>
+  </si>
+  <si>
+    <t>T10</t>
+  </si>
+  <si>
+    <t>40.352312</t>
+  </si>
+  <si>
+    <t>-4.034269</t>
+  </si>
+  <si>
+    <t>T11</t>
+  </si>
+  <si>
+    <t>40.166813</t>
+  </si>
+  <si>
+    <t>-2.571247</t>
+  </si>
+  <si>
+    <t>11:00am</t>
+  </si>
+  <si>
+    <t>T12</t>
+  </si>
+  <si>
+    <t>40.219973</t>
+  </si>
+  <si>
+    <t>-2.860116</t>
+  </si>
+  <si>
+    <t>T13</t>
+  </si>
+  <si>
+    <t>40.100519</t>
+  </si>
+  <si>
+    <t>-3.395876</t>
+  </si>
+  <si>
+    <t>T14</t>
+  </si>
+  <si>
+    <t>40.10808</t>
+  </si>
+  <si>
+    <t>-2.899145</t>
+  </si>
+  <si>
+    <t>T15</t>
+  </si>
+  <si>
+    <t>39.964728</t>
+  </si>
+  <si>
+    <t>-3.730986</t>
+  </si>
+  <si>
+    <t>T16</t>
+  </si>
+  <si>
+    <t>39.859142</t>
+  </si>
+  <si>
+    <t>-3.99454</t>
+  </si>
+  <si>
+    <t>T17</t>
+  </si>
+  <si>
+    <t>40.056521</t>
+  </si>
+  <si>
+    <t>-2.72541</t>
+  </si>
+  <si>
+    <t>T18</t>
+  </si>
+  <si>
+    <t>40.218255</t>
+  </si>
+  <si>
+    <t>-3.107292</t>
+  </si>
+  <si>
+    <t>T19</t>
+  </si>
+  <si>
+    <t>39.968935</t>
+  </si>
+  <si>
+    <t>-2.433232</t>
+  </si>
+  <si>
+    <t>T20</t>
+  </si>
+  <si>
+    <t>40.031162</t>
+  </si>
+  <si>
+    <t>-2.680993</t>
+  </si>
+  <si>
+    <t>T21</t>
+  </si>
+  <si>
+    <t>39.778512</t>
+  </si>
+  <si>
+    <t>-3.282451</t>
+  </si>
+  <si>
+    <t>T22</t>
+  </si>
+  <si>
+    <t>39.781741</t>
+  </si>
+  <si>
+    <t>-2.588596</t>
+  </si>
+  <si>
+    <t>T23</t>
+  </si>
+  <si>
+    <t>40.008987</t>
+  </si>
+  <si>
+    <t>-2.335814</t>
+  </si>
+  <si>
+    <t>T24</t>
+  </si>
+  <si>
+    <t>40.299072</t>
+  </si>
+  <si>
+    <t>-3.247438</t>
+  </si>
+  <si>
+    <t>T25</t>
+  </si>
+  <si>
+    <t>40.049372</t>
+  </si>
+  <si>
+    <t>-2.495883</t>
+  </si>
+  <si>
+    <t>T26</t>
+  </si>
+  <si>
+    <t>1:00pm</t>
+  </si>
+  <si>
+    <t>T27</t>
+  </si>
+  <si>
+    <t>39.92666</t>
+  </si>
+  <si>
+    <t>-2.450097</t>
+  </si>
+  <si>
+    <t>Maria</t>
+  </si>
+  <si>
+    <t>40.2081764</t>
+  </si>
+  <si>
+    <t>-2.6797416</t>
   </si>
 </sst>
 </file>
@@ -501,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G6"/>
   <sheetViews>
-    <sheetView zoomScale="139" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -550,6 +769,29 @@
         <v>17</v>
       </c>
       <c r="G2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>105</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+      <c r="C3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" t="s">
         <v>18</v>
       </c>
     </row>
@@ -572,8 +814,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -622,7 +864,7 @@
   <dimension ref="A1:H120"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
@@ -765,130 +1007,613 @@
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6">
+        <v>45</v>
+      </c>
+      <c r="E6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D7">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>20</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D8">
+        <v>40</v>
+      </c>
+      <c r="E8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9">
+        <v>40</v>
+      </c>
+      <c r="E9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>50</v>
+      </c>
+      <c r="H10" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D11">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>20</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>20</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>20</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
+      <c r="A15" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>20</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A17" s="1"/>
-      <c r="B17" s="1"/>
-      <c r="C17" s="1"/>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A18" s="1"/>
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A19" s="1"/>
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A20" s="1"/>
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A21" s="1"/>
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A22" s="1"/>
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A24" s="1"/>
-      <c r="B24" s="1"/>
-      <c r="C24" s="1"/>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A25" s="1"/>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A26" s="1"/>
-      <c r="B26" s="1"/>
-      <c r="C26" s="1"/>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A27" s="1"/>
-      <c r="B27" s="1"/>
-      <c r="C27" s="1"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A28" s="1"/>
-      <c r="B28" s="1"/>
-      <c r="C28" s="1"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>20</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D17">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>20</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>20</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18" t="s">
+        <v>17</v>
+      </c>
+      <c r="H18" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A19" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>20</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A20" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D20">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>20</v>
+      </c>
+      <c r="F20">
+        <v>2</v>
+      </c>
+      <c r="G20" t="s">
+        <v>17</v>
+      </c>
+      <c r="H20" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A21" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D21">
+        <v>45</v>
+      </c>
+      <c r="E21" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21">
+        <v>2</v>
+      </c>
+      <c r="G21" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A22" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D22">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A23" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D23">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>20</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A24" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D24">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D25">
+        <v>203</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25">
+        <v>2</v>
+      </c>
+      <c r="G25" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A26" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D26">
+        <v>210</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>17</v>
+      </c>
+      <c r="H26" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A27" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="D27">
+        <v>210</v>
+      </c>
+      <c r="E27" t="s">
+        <v>20</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>101</v>
+      </c>
+      <c r="H27" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A28" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D28">
+        <v>40</v>
+      </c>
+      <c r="E28" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28">
+        <v>2</v>
+      </c>
+      <c r="G28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H28" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D30" s="1"/>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D31" s="1"/>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.35">
